--- a/data/trans_orig/IP07A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA82DA4C-12DE-43B5-A0AD-C9D4137BE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{859CD0B5-9DFE-4795-961A-21C988B6CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D6AC975-9C47-4E7E-A6B6-3DF62551A4CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A98AC76C-AA82-4036-95BF-1D2549ADDAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="434">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>44,53%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,28 +106,25 @@
     <t>45,56%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
   </si>
   <si>
     <t>37,42%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -136,1234 +133,1213 @@
     <t>9,92%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
     <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D697020C-3490-4F44-81E5-A23ECA4C5332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185DF77-A8C8-47A6-BA7C-E8B396A69AC0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1983,16 +1959,16 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>7</v>
@@ -2001,13 +1977,13 @@
         <v>4683</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -2016,13 +1992,13 @@
         <v>5247</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -2031,19 +2007,19 @@
         <v>9931</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -2052,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2067,13 +2043,13 @@
         <v>632</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2082,19 +2058,19 @@
         <v>632</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2103,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2118,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2133,13 +2109,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2130,13 @@
         <v>47230</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -2169,13 +2145,13 @@
         <v>49990</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -2184,18 +2160,18 @@
         <v>97221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2207,13 +2183,13 @@
         <v>83314</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>113</v>
@@ -2222,13 +2198,13 @@
         <v>76515</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
@@ -2237,13 +2213,13 @@
         <v>159829</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,7 +2276,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>33</v>
@@ -2351,7 +2327,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2363,7 +2339,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
@@ -2375,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>81</v>
@@ -2393,7 +2369,7 @@
         <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>83</v>
@@ -2402,7 +2378,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2414,7 +2390,7 @@
         <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>85</v>
@@ -2429,7 +2405,7 @@
         <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>87</v>
@@ -2444,7 +2420,7 @@
         <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>88</v>
@@ -2462,13 +2438,13 @@
         <v>237963</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>303</v>
@@ -2477,13 +2453,13 @@
         <v>202670</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>662</v>
@@ -2492,13 +2468,13 @@
         <v>440634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2584,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -2659,7 +2635,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>2</v>
@@ -2668,10 +2644,10 @@
         <v>1521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>117</v>
@@ -2683,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>118</v>
@@ -2701,7 +2677,7 @@
         <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>120</v>
@@ -2710,7 +2686,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2719,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>121</v>
@@ -2734,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>118</v>
@@ -2749,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2770,13 +2746,13 @@
         <v>60394</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>95</v>
@@ -2785,13 +2761,13 @@
         <v>66134</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>184</v>
@@ -2800,13 +2776,13 @@
         <v>126528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,10 +2817,10 @@
         <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>376</v>
@@ -2853,13 +2829,13 @@
         <v>253285</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,13 +2850,13 @@
         <v>181026</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>236</v>
@@ -2889,13 +2865,13 @@
         <v>157742</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>506</v>
@@ -2904,19 +2880,19 @@
         <v>338767</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>51</v>
@@ -2925,13 +2901,13 @@
         <v>33626</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2940,13 +2916,13 @@
         <v>34560</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>104</v>
@@ -2955,19 +2931,19 @@
         <v>68186</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -2976,13 +2952,13 @@
         <v>2216</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2991,13 +2967,13 @@
         <v>632</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3006,19 +2982,19 @@
         <v>2848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -3027,13 +3003,13 @@
         <v>635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3042,13 +3018,13 @@
         <v>661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3057,13 +3033,13 @@
         <v>1296</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3054,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>473</v>
@@ -3093,13 +3069,13 @@
         <v>318795</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>992</v>
@@ -3108,18 +3084,18 @@
         <v>664382</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79BA16A-6485-424E-AF85-B11473C11C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7704DF33-5AC1-4F90-9BEF-FC9F1F31B34E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3155,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3262,13 +3238,13 @@
         <v>15868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3277,13 +3253,13 @@
         <v>19148</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3292,13 +3268,13 @@
         <v>35017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3289,13 @@
         <v>23549</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>38</v>
@@ -3328,13 +3304,13 @@
         <v>27363</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -3343,19 +3319,19 @@
         <v>50912</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -3364,13 +3340,13 @@
         <v>5222</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -3379,13 +3355,13 @@
         <v>3832</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3394,19 +3370,19 @@
         <v>9055</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -3418,10 +3394,10 @@
         <v>85</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3430,13 +3406,13 @@
         <v>1344</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3445,19 +3421,19 @@
         <v>1951</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3466,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3481,13 +3457,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3496,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3493,13 @@
         <v>45246</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -3532,13 +3508,13 @@
         <v>51688</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3547,18 +3523,18 @@
         <v>96934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3570,13 +3546,13 @@
         <v>92644</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -3585,13 +3561,13 @@
         <v>65044</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>229</v>
@@ -3600,13 +3576,13 @@
         <v>157688</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3597,13 @@
         <v>109692</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -3636,13 +3612,13 @@
         <v>118432</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -3651,19 +3627,19 @@
         <v>228124</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
@@ -3672,13 +3648,13 @@
         <v>19619</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -3687,7 +3663,7 @@
         <v>16071</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>217</v>
@@ -3714,7 +3690,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>5</v>
@@ -3741,7 +3717,7 @@
         <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>225</v>
@@ -3765,7 +3741,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -3774,13 +3750,13 @@
         <v>1321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3789,13 +3765,13 @@
         <v>1741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3825,13 +3801,13 @@
         <v>226655</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>289</v>
@@ -3840,13 +3816,13 @@
         <v>201964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>620</v>
@@ -3855,13 +3831,13 @@
         <v>428619</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,10 +3887,10 @@
         <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3905,13 @@
         <v>26415</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -3944,13 +3920,13 @@
         <v>38073</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -3959,19 +3935,19 @@
         <v>64488</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>13</v>
@@ -3980,13 +3956,13 @@
         <v>8734</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3995,13 +3971,13 @@
         <v>4228</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4010,19 +3986,19 @@
         <v>12962</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
@@ -4031,13 +4007,13 @@
         <v>2002</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4046,13 +4022,13 @@
         <v>701</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4061,19 +4037,19 @@
         <v>2704</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4082,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4097,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4112,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4109,13 @@
         <v>57933</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -4148,13 +4124,13 @@
         <v>62628</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -4163,13 +4139,13 @@
         <v>120560</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4162,13 @@
         <v>129293</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -4201,13 +4177,13 @@
         <v>103819</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>339</v>
@@ -4216,13 +4192,13 @@
         <v>233112</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4213,13 @@
         <v>159655</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>259</v>
@@ -4252,13 +4228,13 @@
         <v>183869</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>488</v>
@@ -4267,19 +4243,19 @@
         <v>343524</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>50</v>
@@ -4288,13 +4264,13 @@
         <v>33575</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -4303,13 +4279,13 @@
         <v>24132</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -4318,19 +4294,19 @@
         <v>57706</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>9</v>
@@ -4339,13 +4315,13 @@
         <v>5989</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4354,13 +4330,13 @@
         <v>2720</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4369,19 +4345,19 @@
         <v>8709</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -4393,7 +4369,7 @@
         <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>303</v>
@@ -4408,7 +4384,7 @@
         <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>305</v>
@@ -4441,13 +4417,13 @@
         <v>329833</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>449</v>
@@ -4456,13 +4432,13 @@
         <v>316280</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>929</v>
@@ -4471,18 +4447,18 @@
         <v>646113</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B02D83E-7A96-43CE-B706-F7C79F427440}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D41-8631-4FE5-A1B4-9887A6DF4B6A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4625,13 +4601,13 @@
         <v>17128</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -4640,13 +4616,13 @@
         <v>15601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -4655,13 +4631,13 @@
         <v>32730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,7 +4652,7 @@
         <v>18276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>319</v>
@@ -4697,7 +4673,7 @@
         <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -4706,19 +4682,19 @@
         <v>32991</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -4727,13 +4703,13 @@
         <v>1233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4742,13 +4718,13 @@
         <v>1498</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4757,19 +4733,19 @@
         <v>2731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4778,13 +4754,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4793,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4808,19 +4784,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4829,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4844,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4859,13 +4835,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4856,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4895,13 +4871,13 @@
         <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4910,18 +4886,18 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4933,13 +4909,13 @@
         <v>135215</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>173</v>
@@ -4948,13 +4924,13 @@
         <v>121967</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>357</v>
@@ -4963,13 +4939,13 @@
         <v>257182</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4960,13 @@
         <v>87901</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>158</v>
@@ -4999,13 +4975,13 @@
         <v>109055</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -5014,19 +4990,19 @@
         <v>196955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>27</v>
@@ -5035,13 +5011,13 @@
         <v>19634</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>22</v>
@@ -5050,13 +5026,13 @@
         <v>14605</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -5065,19 +5041,19 @@
         <v>34238</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -5086,13 +5062,13 @@
         <v>727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5101,13 +5077,13 @@
         <v>3294</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5116,19 +5092,19 @@
         <v>4021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5137,13 +5113,13 @@
         <v>588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5152,13 +5128,13 @@
         <v>1638</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5167,13 +5143,13 @@
         <v>2226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5164,13 @@
         <v>244064</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
         <v>360</v>
@@ -5203,13 +5179,13 @@
         <v>250559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>693</v>
@@ -5218,13 +5194,13 @@
         <v>494623</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5217,13 @@
         <v>41260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5256,13 +5232,13 @@
         <v>36092</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -5271,13 +5247,13 @@
         <v>77352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5268,13 @@
         <v>32218</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5307,13 +5283,13 @@
         <v>31255</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -5322,19 +5298,19 @@
         <v>63473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -5343,13 +5319,13 @@
         <v>3295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>395</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5358,13 +5334,13 @@
         <v>6388</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -5373,19 +5349,19 @@
         <v>9683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -5394,13 +5370,13 @@
         <v>671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>327</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5409,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5424,19 +5400,19 @@
         <v>671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5445,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5460,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5475,13 +5451,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5472,13 @@
         <v>77444</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
         <v>103</v>
@@ -5511,13 +5487,13 @@
         <v>73736</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -5526,13 +5502,13 @@
         <v>151180</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5525,13 @@
         <v>193604</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>244</v>
@@ -5564,13 +5540,13 @@
         <v>173661</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -5579,13 +5555,13 @@
         <v>367265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5600,13 +5576,13 @@
         <v>138395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>224</v>
@@ -5615,13 +5591,13 @@
         <v>155025</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>413</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>414</v>
@@ -5630,19 +5606,19 @@
         <v>293420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>34</v>
@@ -5651,13 +5627,13 @@
         <v>24162</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
@@ -5666,13 +5642,13 @@
         <v>22491</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -5681,19 +5657,19 @@
         <v>46653</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>358</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -5702,13 +5678,13 @@
         <v>1397</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5717,13 +5693,13 @@
         <v>3294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5732,19 +5708,19 @@
         <v>4691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -5756,10 +5732,10 @@
         <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5768,13 +5744,13 @@
         <v>1638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>227</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5783,13 +5759,13 @@
         <v>2226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5780,13 @@
         <v>358146</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5819,13 +5795,13 @@
         <v>356110</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M27" s="7">
         <v>1000</v>
@@ -5834,18 +5810,18 @@
         <v>714256</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{859CD0B5-9DFE-4795-961A-21C988B6CD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B72DF7-FD05-482F-8A37-0E7FEF00582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A98AC76C-AA82-4036-95BF-1D2549ADDAE5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{20ECAB21-8BEB-4A36-9124-65C30B609E3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="441">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,108 +73,111 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
     <t>44,53%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
     <t>45,56%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
   </si>
   <si>
     <t>41,37%</t>
   </si>
   <si>
-    <t>49,37%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>Moderadamente</t>
   </si>
   <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>Poco</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,91%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
@@ -196,85 +199,88 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>36,27%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
   </si>
   <si>
     <t>55,47%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -283,1057 +289,1072 @@
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 44,26%)</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>35,63%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>1,23%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -1751,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A185DF77-A8C8-47A6-BA7C-E8B396A69AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B88976A-01F2-483E-BC2E-3CF230258897}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1869,10 +1890,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>21030</v>
+        <v>25404</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1884,10 +1905,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>25404</v>
+        <v>21030</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1920,10 +1941,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>21517</v>
+        <v>18707</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1935,10 +1956,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>18707</v>
+        <v>21517</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1959,46 +1980,46 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5247</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4683</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5247</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -2007,49 +2028,49 @@
         <v>9931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>632</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>632</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2058,19 +2079,19 @@
         <v>632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2079,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2094,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2109,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,34 +2145,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>49990</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>49990</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>146</v>
@@ -2160,51 +2181,51 @@
         <v>97221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>113</v>
+      </c>
+      <c r="D10" s="7">
+        <v>76515</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="7">
         <v>127</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>83314</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="7">
-        <v>113</v>
-      </c>
-      <c r="I10" s="7">
-        <v>76515</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>240</v>
@@ -2213,13 +2234,13 @@
         <v>159829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,34 +2249,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>153</v>
+      </c>
+      <c r="D11" s="7">
+        <v>102592</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="7">
         <v>197</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>132004</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7">
-        <v>153</v>
-      </c>
-      <c r="I11" s="7">
-        <v>102592</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>350</v>
@@ -2264,49 +2285,49 @@
         <v>234597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22902</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="7">
         <v>33</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>21316</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22902</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -2315,49 +2336,49 @@
         <v>44218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2366,31 +2387,31 @@
         <v>695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>85</v>
@@ -2399,13 +2420,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>87</v>
@@ -2417,10 +2438,10 @@
         <v>1296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>88</v>
@@ -2432,34 +2453,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202670</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>359</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237963</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>303</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202670</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>662</v>
@@ -2468,13 +2489,13 @@
         <v>440634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,10 +2506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>23741</v>
+        <v>23280</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>90</v>
@@ -2500,10 +2521,10 @@
         <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>23280</v>
+        <v>23741</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>93</v>
@@ -2536,10 +2557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>27505</v>
+        <v>36443</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>99</v>
@@ -2551,10 +2572,10 @@
         <v>101</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>36443</v>
+        <v>27505</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>102</v>
@@ -2584,13 +2605,13 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>7627</v>
+        <v>6411</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>108</v>
@@ -2602,10 +2623,10 @@
         <v>110</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>6411</v>
+        <v>7627</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>111</v>
@@ -2635,34 +2656,34 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>117</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>118</v>
@@ -2677,7 +2698,7 @@
         <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>120</v>
@@ -2686,7 +2707,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2695,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2710,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2725,13 +2746,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,34 +2761,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66134</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>89</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>60394</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>66134</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>184</v>
@@ -2776,13 +2797,13 @@
         <v>126528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,31 +2814,31 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>182</v>
+      </c>
+      <c r="D22" s="7">
+        <v>125200</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="7">
         <v>194</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>128085</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="7">
-        <v>182</v>
-      </c>
-      <c r="I22" s="7">
-        <v>125200</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>127</v>
@@ -2844,10 +2865,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D23" s="7">
-        <v>181026</v>
+        <v>157742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>131</v>
@@ -2859,10 +2880,10 @@
         <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>157742</v>
+        <v>181026</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>134</v>
@@ -2892,13 +2913,13 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>33626</v>
+        <v>34560</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>140</v>
@@ -2910,19 +2931,19 @@
         <v>142</v>
       </c>
       <c r="H24" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I24" s="7">
-        <v>34560</v>
+        <v>33626</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>143</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M24" s="7">
         <v>104</v>
@@ -2931,49 +2952,49 @@
         <v>68186</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>632</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2216</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>632</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2982,49 +3003,49 @@
         <v>2848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>661</v>
+        <v>635</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3033,13 +3054,13 @@
         <v>1296</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,34 +3069,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>473</v>
+      </c>
+      <c r="D27" s="7">
+        <v>318795</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>473</v>
-      </c>
-      <c r="I27" s="7">
-        <v>318795</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>992</v>
@@ -3084,18 +3105,18 @@
         <v>664382</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7704DF33-5AC1-4F90-9BEF-FC9F1F31B34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A90DF-D16A-4495-9BD8-CC1C431C5B4C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,7 +3152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3232,34 +3253,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7">
+        <v>19148</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="7">
         <v>23</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>15868</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="7">
-        <v>28</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19148</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3268,13 +3289,13 @@
         <v>35017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,34 +3304,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27363</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="7">
         <v>32</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>23549</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="7">
-        <v>38</v>
-      </c>
-      <c r="I5" s="7">
-        <v>27363</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -3319,49 +3340,49 @@
         <v>50912</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3832</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>5222</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3832</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3370,49 +3391,49 @@
         <v>9055</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>607</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1344</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3421,19 +3442,19 @@
         <v>1951</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3442,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3457,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3472,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,34 +3508,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51688</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45246</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51688</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3523,51 +3544,51 @@
         <v>96934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>93</v>
+      </c>
+      <c r="D10" s="7">
+        <v>65044</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
         <v>136</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>92644</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="7">
-        <v>93</v>
-      </c>
-      <c r="I10" s="7">
-        <v>65044</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>229</v>
@@ -3576,13 +3597,13 @@
         <v>157688</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,34 +3612,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>169</v>
+      </c>
+      <c r="D11" s="7">
+        <v>118432</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="7">
         <v>159</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>109692</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="7">
-        <v>169</v>
-      </c>
-      <c r="I11" s="7">
-        <v>118432</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -3627,49 +3648,49 @@
         <v>228124</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16071</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="7">
         <v>29</v>
       </c>
-      <c r="C12" s="7">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>19619</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H12" s="7">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7">
-        <v>16071</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>53</v>
@@ -3678,49 +3699,49 @@
         <v>35690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3380</v>
+        <v>675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>224</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>675</v>
+        <v>3380</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3729,49 +3750,49 @@
         <v>4055</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>1321</v>
+        <v>1741</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>1741</v>
+        <v>1321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -3780,13 +3801,13 @@
         <v>3062</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,34 +3816,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>289</v>
+      </c>
+      <c r="D15" s="7">
+        <v>201964</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>331</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>226655</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>289</v>
-      </c>
-      <c r="I15" s="7">
-        <v>201964</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>620</v>
@@ -3831,13 +3852,13 @@
         <v>428619</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,34 +3869,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>28</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19626</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="7">
         <v>31</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>20781</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>19626</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -3884,13 +3905,13 @@
         <v>40406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,34 +3920,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38073</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="7">
         <v>38</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>26415</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38073</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>90</v>
@@ -3935,49 +3956,49 @@
         <v>64488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4228</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="7">
         <v>13</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>8734</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4228</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -3986,49 +4007,49 @@
         <v>12962</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>2002</v>
+        <v>701</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>701</v>
+        <v>2002</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4037,19 +4058,19 @@
         <v>2704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4058,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4073,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4088,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,34 +4124,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>87</v>
+      </c>
+      <c r="D21" s="7">
+        <v>62628</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>87</v>
-      </c>
-      <c r="I21" s="7">
-        <v>62628</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>172</v>
@@ -4139,13 +4160,13 @@
         <v>120560</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,34 +4177,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>149</v>
+      </c>
+      <c r="D22" s="7">
+        <v>103819</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="7">
         <v>190</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>129293</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H22" s="7">
-        <v>149</v>
-      </c>
-      <c r="I22" s="7">
-        <v>103819</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>339</v>
@@ -4192,13 +4213,13 @@
         <v>233112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,34 +4228,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>259</v>
+      </c>
+      <c r="D23" s="7">
+        <v>183869</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="7">
         <v>229</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>159655</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="7">
-        <v>259</v>
-      </c>
-      <c r="I23" s="7">
-        <v>183869</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>488</v>
@@ -4243,49 +4264,49 @@
         <v>343524</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7">
+        <v>24132</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="7">
         <v>50</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>33575</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="7">
-        <v>35</v>
-      </c>
-      <c r="I24" s="7">
-        <v>24132</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -4294,49 +4315,49 @@
         <v>57706</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2720</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="7">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5989</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2720</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -4345,49 +4366,49 @@
         <v>8709</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1321</v>
+        <v>1741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1741</v>
+        <v>1321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4396,13 +4417,13 @@
         <v>3062</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,34 +4432,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>449</v>
+      </c>
+      <c r="D27" s="7">
+        <v>316280</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>329833</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>449</v>
-      </c>
-      <c r="I27" s="7">
-        <v>316280</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>929</v>
@@ -4447,18 +4468,18 @@
         <v>646113</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D632D41-8631-4FE5-A1B4-9887A6DF4B6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B7275F-BDD0-4667-A344-C544A463B4B0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4595,10 +4616,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>17128</v>
+        <v>15601</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>310</v>
@@ -4610,10 +4631,10 @@
         <v>312</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>15601</v>
+        <v>17128</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>313</v>
@@ -4646,34 +4667,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14714</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>18276</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H5" s="7">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14714</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -4682,49 +4703,49 @@
         <v>32991</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1233</v>
+        <v>1498</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1498</v>
+        <v>1233</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4733,19 +4754,19 @@
         <v>2731</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -4754,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4769,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4784,19 +4805,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4805,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4820,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4835,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,34 +4871,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
+        <v>51</v>
+      </c>
+      <c r="I9" s="7">
         <v>36638</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>97</v>
@@ -4886,51 +4907,51 @@
         <v>68453</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>173</v>
+      </c>
+      <c r="D10" s="7">
+        <v>121967</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="7">
         <v>184</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>135215</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H10" s="7">
-        <v>173</v>
-      </c>
-      <c r="I10" s="7">
-        <v>121967</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>357</v>
@@ -4939,13 +4960,13 @@
         <v>257182</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,34 +4975,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7">
+        <v>109055</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="7">
         <v>120</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>87901</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H11" s="7">
-        <v>158</v>
-      </c>
-      <c r="I11" s="7">
-        <v>109055</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -4990,49 +5011,49 @@
         <v>196955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14605</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>19634</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14605</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -5041,49 +5062,49 @@
         <v>34238</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>216</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3294</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>727</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3294</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5092,49 +5113,49 @@
         <v>4021</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1638</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>588</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1638</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5143,13 +5164,13 @@
         <v>2226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,34 +5179,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>250559</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>244064</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="7">
-        <v>360</v>
-      </c>
-      <c r="I15" s="7">
-        <v>250559</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>693</v>
@@ -5194,13 +5215,13 @@
         <v>494623</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,34 +5232,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>49</v>
+      </c>
+      <c r="D16" s="7">
+        <v>36092</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="7">
         <v>56</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>41260</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H16" s="7">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36092</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -5247,13 +5268,13 @@
         <v>77352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,34 +5283,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31255</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" s="7">
         <v>45</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>32218</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H17" s="7">
-        <v>44</v>
-      </c>
-      <c r="I17" s="7">
-        <v>31255</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -5298,49 +5319,49 @@
         <v>63473</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6388</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3295</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6388</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>213</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -5349,49 +5370,49 @@
         <v>9683</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>671</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>401</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5400,19 +5421,19 @@
         <v>671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -5421,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5436,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5451,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,34 +5487,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>103</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73736</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>107</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>77444</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="7">
-        <v>103</v>
-      </c>
-      <c r="I21" s="7">
-        <v>73736</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -5502,13 +5523,13 @@
         <v>151180</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,34 +5540,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>244</v>
+      </c>
+      <c r="D22" s="7">
+        <v>173661</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H22" s="7">
         <v>264</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>193604</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="H22" s="7">
-        <v>244</v>
-      </c>
-      <c r="I22" s="7">
-        <v>173661</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -5555,13 +5576,13 @@
         <v>367265</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,34 +5591,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>224</v>
+      </c>
+      <c r="D23" s="7">
+        <v>155025</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H23" s="7">
         <v>190</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>138395</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H23" s="7">
-        <v>224</v>
-      </c>
-      <c r="I23" s="7">
-        <v>155025</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>414</v>
@@ -5606,49 +5627,49 @@
         <v>293420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>24162</v>
+        <v>22491</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>254</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>34</v>
       </c>
       <c r="I24" s="7">
-        <v>22491</v>
+        <v>24162</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>68</v>
@@ -5657,49 +5678,49 @@
         <v>46653</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3294</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1397</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3294</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -5708,49 +5729,49 @@
         <v>4691</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1638</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>588</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1638</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5759,13 +5780,13 @@
         <v>2226</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>395</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,34 +5795,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>509</v>
+      </c>
+      <c r="D27" s="7">
+        <v>356110</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>491</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>358146</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="7">
-        <v>509</v>
-      </c>
-      <c r="I27" s="7">
-        <v>356110</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>1000</v>
@@ -5810,18 +5831,18 @@
         <v>714256</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
